--- a/Testfolder123.xlsx
+++ b/Testfolder123.xlsx
@@ -359,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -370,32 +370,41 @@
     <col min="2" max="2" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
     </row>
